--- a/documents/#02.基本設計/アクティビティ図.xlsx
+++ b/documents/#02.基本設計/アクティビティ図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D61587B-60FF-4DFC-8D3E-F34DFB84C1C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D319F-70DE-4AEF-824A-7D21FE344F40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="450" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -106,13 +106,38 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇図</t>
+    <t>〇〇設計</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇設計</t>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
+    <t>システムID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CLibPrj</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクティビティ図</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本設計</t>
+    <rPh sb="0" eb="4">
+      <t>キホンセッケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -128,27 +153,6 @@
   </si>
   <si>
     <t>http://www.itsenka.com/contents/development/uml/activity.html</t>
-  </si>
-  <si>
-    <t>基本設計</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アクティビティ図</t>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CLibPrj</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -193,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -418,17 +422,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -633,17 +626,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -675,6 +657,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -682,9 +675,36 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -695,9 +715,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -705,22 +723,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -730,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -739,9 +742,147 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -753,138 +894,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,7 +932,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C56327C-5016-4673-9F94-64F3C10DAE4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8497B175-2DDB-43D5-97EF-063C18CA4DC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,8 +940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="907439" y="1362364"/>
-          <a:ext cx="264085" cy="274170"/>
+          <a:off x="909748" y="1320800"/>
+          <a:ext cx="264662" cy="268398"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -983,7 +992,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DC693F-9D07-44E3-90CF-8EA81FB7AF52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC9436B-F56A-45BE-8848-8961DB8C884C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,7 +1011,7 @@
           <xdr:cNvPr id="4" name="楕円 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF798C5F-7F9A-437E-8ADA-05BDFBBF838D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90C3AD6-01B8-4E24-BA65-B34ED5E9E9DC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1050,7 +1059,7 @@
           <xdr:cNvPr id="5" name="楕円 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF542FF8-BD19-4D9E-9E1D-FA3AEB209E89}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1113F7-7B0C-4E78-BCCF-58B8C691722F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1111,7 +1120,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA511467-1DB8-4DDD-84A3-B5B5B452E4D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA9102B-1F59-4683-8120-005E57C3211D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,8 +1128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="637003" y="1941877"/>
-          <a:ext cx="846791" cy="413870"/>
+          <a:off x="638735" y="1888768"/>
+          <a:ext cx="849100" cy="396552"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1181,7 +1190,7 @@
         <xdr:cNvPr id="7" name="ひし形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63F796D-446B-46C7-B6A9-B5E82D14F5D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAE1CB-9F20-4DDA-B16A-34BA9887161B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,8 +1198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3377589" y="2210207"/>
-          <a:ext cx="375770" cy="388471"/>
+          <a:off x="3387403" y="2145552"/>
+          <a:ext cx="376924" cy="376926"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1249,7 +1258,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95216E6D-EE94-4B56-A64D-4936093877EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3A2075-1EF1-44DD-8D9F-F44B37EEE762}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,8 +1266,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1025474" y="3849322"/>
-          <a:ext cx="0" cy="840442"/>
+          <a:off x="1028360" y="3738486"/>
+          <a:ext cx="0" cy="817351"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1300,7 +1309,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD1561D-0BCD-4776-85CC-75AEDE115C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9638D10-13B4-467F-BBA3-00090C9CAFBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,8 +1317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="611603" y="2664861"/>
-          <a:ext cx="1171762" cy="432920"/>
+          <a:off x="613335" y="2588661"/>
+          <a:ext cx="1175225" cy="421375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,7 +1370,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE0612C-3B68-46B9-B405-C7540406D5D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D137E528-3FB1-45CD-8A7B-81512C603E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,8 +1378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2008603" y="2639460"/>
-          <a:ext cx="1171762" cy="509121"/>
+          <a:off x="2014376" y="2563260"/>
+          <a:ext cx="1175225" cy="491803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1429,7 +1438,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582396F3-C241-4BAE-B52B-027392EF4227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67706BB-4B60-4EBF-BF46-1190675DCFEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,8 +1446,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617953" y="5002034"/>
-          <a:ext cx="977527" cy="0"/>
+          <a:off x="619685" y="4856561"/>
+          <a:ext cx="980413" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1482,7 +1491,7 @@
         <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABECB33-9D3C-42D2-B23B-C261AEF1A8CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28312A0-6374-4976-A3B5-EFC792A0043D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,8 +1499,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="694153" y="5170869"/>
-          <a:ext cx="783291" cy="375771"/>
+          <a:off x="695885" y="5019624"/>
+          <a:ext cx="785600" cy="364225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1530,7 +1539,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD83EDB-B343-49BD-AA1B-1AE5FDCAB980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5D99FF-ADAE-4F4A-9A43-D8A4E71264DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1547,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2528454" y="1392280"/>
+          <a:off x="2535381" y="1350716"/>
           <a:ext cx="1122846" cy="244061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1628,7 +1637,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E093131-127B-4BF9-8815-7A9ADEC072E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F115EC-DE5D-4582-B330-EB442D66D790}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933218" y="1376219"/>
-          <a:ext cx="324971" cy="337670"/>
+          <a:off x="1938413" y="1334655"/>
+          <a:ext cx="326126" cy="331898"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1698,7 +1707,7 @@
         <xdr:cNvPr id="15" name="フローチャート: 端子 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCE9642-0C03-403F-890F-7B23966B913D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BF62D0-80CD-4E79-9529-A62C30206AAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,8 +1715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1794673" y="1974239"/>
-          <a:ext cx="1270000" cy="419100"/>
+          <a:off x="1799868" y="1915357"/>
+          <a:ext cx="1273464" cy="407555"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -1759,7 +1768,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFCD633-64D1-480D-B7F5-240C1EB7AAEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B687B1C4-07DD-41BF-88E9-4A84174AD870}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,8 +1778,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1963406" y="4975514"/>
-          <a:ext cx="979021" cy="0"/>
+          <a:off x="1969179" y="4830041"/>
+          <a:ext cx="981330" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1815,7 +1824,7 @@
         <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6597F4A-259A-452A-A0A2-5481C233811E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7467F60-5D2C-4679-BC44-8A7CAC3B5803}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,8 +1832,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1994035" y="5170869"/>
-          <a:ext cx="783291" cy="375771"/>
+          <a:off x="1999808" y="5019624"/>
+          <a:ext cx="785600" cy="364225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2122,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BU101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:BT52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -2206,81 +2215,81 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47" t="s">
-        <v>9</v>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="58" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
       <c r="BQ2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2291,239 +2300,241 @@
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="15" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
       <c r="BU3" s="6"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
-        <v>10</v>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="31" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -2608,13 +2619,13 @@
     <row r="8" spans="1:73">
       <c r="A8" s="4"/>
       <c r="Y8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BU8" s="6"/>
     </row>
@@ -3200,29 +3211,30 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="BQ3:BT5"/>
+  <mergeCells count="20">
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
+    <mergeCell ref="AO2:AS3"/>
     <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
     <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
@@ -3232,14 +3244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCDA70A-89B5-459B-8D04-14496ADF135A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE3229-808F-4136-8A17-6CA64C9C7892}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:V5"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -3322,83 +3334,83 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
-        <v>16</v>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47" t="s">
-        <v>15</v>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50" t="s">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="50"/>
       <c r="AP2" s="50"/>
       <c r="AQ2" s="50"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="55"/>
-      <c r="BG2" s="58" t="s">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BH2" s="58"/>
-      <c r="BI2" s="58"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
       <c r="BQ2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3409,239 +3421,241 @@
     </row>
     <row r="3" spans="1:73" ht="15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="15" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="18"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
       <c r="BU3" s="6"/>
     </row>
     <row r="4" spans="1:73" ht="15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="31" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="18"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="29"/>
-      <c r="BE5" s="29"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="12" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-      <c r="BO5" s="13"/>
-      <c r="BP5" s="13"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20"/>
-      <c r="BT5" s="21"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -4309,29 +4323,30 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
     <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
-    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
-    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>

--- a/documents/#02.基本設計/アクティビティ図.xlsx
+++ b/documents/#02.基本設計/アクティビティ図.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058D319F-70DE-4AEF-824A-7D21FE344F40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122EBA4-602F-47CF-A2EC-D000BA0BE5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="90" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原紙" sheetId="6" r:id="rId1"/>
-    <sheet name="アクティビティ図" sheetId="7" r:id="rId2"/>
+    <sheet name="原紙" sheetId="8" r:id="rId1"/>
+    <sheet name="アクティビティ図" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">アクティビティ図!$A$1:$BU$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">アクティビティ図!$A$1:$BU$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$99</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">アクティビティ図!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">原紙!$1:$5</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -79,10 +79,6 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ページNo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -197,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -422,7 +418,185 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
@@ -433,18 +607,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
@@ -453,27 +662,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -481,159 +675,14 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -644,58 +693,88 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="dotted">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,27 +782,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -733,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -741,160 +802,167 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -918,13 +986,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122348</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190160</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>77898</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -932,7 +1000,7 @@
         <xdr:cNvPr id="2" name="楕円 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8497B175-2DDB-43D5-97EF-063C18CA4DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868A1C06-8511-4B76-A773-958779179830}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,13 +1046,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>191622</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>171993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85946</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>77274</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -992,7 +1060,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC9436B-F56A-45BE-8848-8961DB8C884C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DA0F89-BF07-45C9-9BE5-3B715186662D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,8 +1068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1369258" y="1338084"/>
-          <a:ext cx="286870" cy="297826"/>
+          <a:off x="1369258" y="1349629"/>
+          <a:ext cx="286870" cy="297827"/>
           <a:chOff x="349250" y="914400"/>
           <a:chExt cx="266700" cy="266700"/>
         </a:xfrm>
@@ -1011,7 +1079,7 @@
           <xdr:cNvPr id="4" name="楕円 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90C3AD6-01B8-4E24-BA65-B34ED5E9E9DC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D9793B-962A-4C1D-86F2-A6CCA8718446}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1059,7 +1127,7 @@
           <xdr:cNvPr id="5" name="楕円 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1113F7-7B0C-4E78-BCCF-58B8C691722F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2CD94B-FF66-46A1-A486-AE7ADC8B7632}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1106,13 +1174,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>48185</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>186968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>109885</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>12020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1120,7 +1188,7 @@
         <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA9102B-1F59-4683-8120-005E57C3211D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8146C7C0-8C57-4444-9046-E6D787D84E6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,13 +1244,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>40953</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>62752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>24177</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>58678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1190,7 +1258,7 @@
         <xdr:cNvPr id="7" name="ひし形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAE1CB-9F20-4DDA-B16A-34BA9887161B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129FE869-8862-4AC9-A28D-08CE82915F46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,13 +1312,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44110</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>131686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44110</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>187037</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1258,7 +1326,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3A2075-1EF1-44DD-8D9F-F44B37EEE762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8E3E71-47F2-4FFE-A2F5-9096B8050C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,13 +1363,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22785</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>124861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>16910</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>165236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1309,7 +1377,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9638D10-13B4-467F-BBA3-00090C9CAFBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F538252-9300-4EA9-8F3F-CF0B55A32F89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,13 +1424,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>45876</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>99460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>40001</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1370,7 +1438,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D137E528-3FB1-45CD-8A7B-81512C603E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A2BFDF-2B3F-445C-87BB-89F0A5F25D38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,13 +1492,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>29135</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>106761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25298</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>106761</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1438,7 +1506,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67706BB-4B60-4EBF-BF46-1190675DCFEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E0EF5D-2B08-4BDD-8E58-2E628C05BEE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,13 +1545,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>105335</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>79324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>103535</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>62549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1491,7 +1559,7 @@
         <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C28312A0-6374-4976-A3B5-EFC792A0043D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13375C9E-B46E-40F0-848B-FD5C54293CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1598,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>29916</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1122846" cy="244061"/>
@@ -1539,7 +1607,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5D99FF-ADAE-4F4A-9A43-D8A4E71264DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56C577E-E282-45BB-A078-3694A6FD0E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,13 +1691,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>166763</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>99189</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>155253</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1637,7 +1705,7 @@
         <xdr:cNvPr id="14" name="楕円 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F115EC-DE5D-4582-B330-EB442D66D790}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38B94AF-859D-4AA2-8DF4-50D07382518E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,13 +1761,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28218</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>23057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>120582</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>49612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1707,7 +1775,7 @@
         <xdr:cNvPr id="15" name="フローチャート: 端子 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BF62D0-80CD-4E79-9529-A62C30206AAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E69149D-704C-4A19-B537-34903467F49F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,13 +1822,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>679</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>194609</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80241</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1768,7 +1836,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B687B1C4-07DD-41BF-88E9-4A84174AD870}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766E3F46-41EE-4F0E-BD4F-64650E7D865E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,13 +1878,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>31308</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>79324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>29508</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>62549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1824,7 +1892,7 @@
         <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7467F60-5D2C-4679-BC44-8A7CAC3B5803}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB98CAD-65CB-4148-B108-BA36FF39F99D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,6 +1926,130 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 端子 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5C0580-9272-4EE7-B09F-FFA0289D87CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092218" y="1915357"/>
+          <a:ext cx="937889" cy="267229"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155218</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 端子 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE58B5F-7BE7-4456-82B0-934067AB6D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092218" y="2260071"/>
+          <a:ext cx="937889" cy="267229"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>End</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2125,14 +2317,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AA4A4-45EB-4262-A851-71FD5D1E5BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F26E1E-6762-4092-B93D-AF71EB102E6F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BU101"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:BT52"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:BP38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -2140,7 +2332,7 @@
     <col min="1" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="7" customHeight="1" thickBot="1">
+    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2215,418 +2407,343 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="54" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="48"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="51"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="50" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="6"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="35"/>
-      <c r="BU3" s="6"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="45" t="s">
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
-      <c r="BP4" s="57"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="35"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="56"/>
+      <c r="BT4" s="4"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="58" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="38"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="60"/>
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="61"/>
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="61"/>
+      <c r="BP5" s="61"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="63"/>
+      <c r="BS5" s="63"/>
+      <c r="BT5" s="64"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="7"/>
+    <row r="6" spans="1:73" ht="15.5" thickTop="1">
+      <c r="A6" s="4"/>
+      <c r="BU6" s="6"/>
     </row>
     <row r="7" spans="1:73">
       <c r="A7" s="4"/>
+      <c r="Y7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="BU7" s="6"/>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" s="4"/>
-      <c r="Y8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="BU8" s="6"/>
     </row>
     <row r="9" spans="1:73">
@@ -2797,161 +2914,90 @@
       <c r="A50" s="4"/>
       <c r="BU50" s="6"/>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" ht="15.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="BU51" s="6"/>
     </row>
-    <row r="52" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A52" s="4"/>
-      <c r="BU52" s="6"/>
+    <row r="52" spans="1:73">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-      <c r="BK53" s="5"/>
-      <c r="BL53" s="5"/>
-      <c r="BM53" s="5"/>
-      <c r="BN53" s="5"/>
-      <c r="BO53" s="5"/>
-      <c r="BP53" s="5"/>
-      <c r="BQ53" s="5"/>
-      <c r="BR53" s="5"/>
-      <c r="BS53" s="5"/>
-      <c r="BT53" s="5"/>
-    </row>
-    <row r="54" spans="1:73" ht="7" customHeight="1" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54" s="2"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54" s="2"/>
-      <c r="BO54" s="2"/>
-      <c r="BP54" s="2"/>
-      <c r="BQ54" s="2"/>
-      <c r="BR54" s="2"/>
-      <c r="BS54" s="2"/>
-      <c r="BT54" s="2"/>
-      <c r="BU54" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="BU53" s="6"/>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" s="4"/>
+      <c r="BU54" s="6"/>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" s="4"/>
@@ -2963,6 +3009,7 @@
     </row>
     <row r="57" spans="1:73">
       <c r="A57" s="4"/>
+      <c r="M57" s="65"/>
       <c r="BU57" s="6"/>
     </row>
     <row r="58" spans="1:73">
@@ -3125,133 +3172,124 @@
       <c r="A97" s="4"/>
       <c r="BU97" s="6"/>
     </row>
-    <row r="98" spans="1:73">
+    <row r="98" spans="1:73" ht="15.5" thickBot="1">
       <c r="A98" s="4"/>
       <c r="BU98" s="6"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="A99" s="4"/>
-      <c r="BU99" s="6"/>
-    </row>
-    <row r="100" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A100" s="4"/>
-      <c r="BU100" s="6"/>
-    </row>
-    <row r="101" spans="1:73">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-      <c r="AK101" s="5"/>
-      <c r="AL101" s="5"/>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5"/>
-      <c r="AQ101" s="5"/>
-      <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
-      <c r="AT101" s="5"/>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="5"/>
-      <c r="AZ101" s="5"/>
-      <c r="BA101" s="5"/>
-      <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-      <c r="BE101" s="5"/>
-      <c r="BF101" s="5"/>
-      <c r="BG101" s="5"/>
-      <c r="BH101" s="5"/>
-      <c r="BI101" s="5"/>
-      <c r="BJ101" s="5"/>
-      <c r="BK101" s="5"/>
-      <c r="BL101" s="5"/>
-      <c r="BM101" s="5"/>
-      <c r="BN101" s="5"/>
-      <c r="BO101" s="5"/>
-      <c r="BP101" s="5"/>
-      <c r="BQ101" s="5"/>
-      <c r="BR101" s="5"/>
-      <c r="BS101" s="5"/>
-      <c r="BT101" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="5"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="5"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="5"/>
+      <c r="BA99" s="5"/>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="5"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+      <c r="BG99" s="5"/>
+      <c r="BH99" s="5"/>
+      <c r="BI99" s="5"/>
+      <c r="BJ99" s="5"/>
+      <c r="BK99" s="5"/>
+      <c r="BL99" s="5"/>
+      <c r="BM99" s="5"/>
+      <c r="BN99" s="5"/>
+      <c r="BO99" s="5"/>
+      <c r="BP99" s="5"/>
+      <c r="BQ99" s="5"/>
+      <c r="BR99" s="5"/>
+      <c r="BS99" s="5"/>
+      <c r="BT99" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="BJ4:BQ4"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BJ5:BQ5"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="AO2:AS3"/>
-    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="W2:AA3"/>
     <mergeCell ref="AB2:AN3"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AO2:AS3"/>
     <mergeCell ref="AT2:BF3"/>
-    <mergeCell ref="AO4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
-    <mergeCell ref="W4:AN5"/>
-    <mergeCell ref="BQ3:BT5"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BJ5:BP5"/>
-    <mergeCell ref="BJ2:BP2"/>
-    <mergeCell ref="BJ3:BP3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
+    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE3229-808F-4136-8A17-6CA64C9C7892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A0870-A044-4917-9973-CB8AAEEE5454}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BU101"/>
+  <dimension ref="A1:BU99"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -3259,7 +3297,7 @@
     <col min="1" max="16384" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="7" customHeight="1" thickBot="1">
+    <row r="1" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3334,404 +3372,329 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="48"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="51"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53"/>
+      <c r="BD3" s="53"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="55"/>
+      <c r="BO3" s="55"/>
+      <c r="BP3" s="55"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="50" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="53"/>
-      <c r="BI2" s="53"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="6"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="34"/>
-      <c r="BS3" s="34"/>
-      <c r="BT3" s="35"/>
-      <c r="BU3" s="6"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="45" t="s">
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="45"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
-      <c r="BP4" s="57"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="35"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="56"/>
+      <c r="BT4" s="4"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="58" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="59"/>
-      <c r="BK5" s="59"/>
-      <c r="BL5" s="59"/>
-      <c r="BM5" s="59"/>
-      <c r="BN5" s="59"/>
-      <c r="BO5" s="59"/>
-      <c r="BP5" s="59"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="37"/>
-      <c r="BT5" s="38"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="60"/>
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="61"/>
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="61"/>
+      <c r="BP5" s="61"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="63"/>
+      <c r="BS5" s="63"/>
+      <c r="BT5" s="64"/>
       <c r="BU5" s="6"/>
     </row>
-    <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="7"/>
+    <row r="6" spans="1:73" ht="15.5" thickTop="1">
+      <c r="A6" s="4"/>
+      <c r="BU6" s="6"/>
     </row>
     <row r="7" spans="1:73">
       <c r="A7" s="4"/>
@@ -3909,161 +3872,90 @@
       <c r="A50" s="4"/>
       <c r="BU50" s="6"/>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" ht="15.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="BU51" s="6"/>
     </row>
-    <row r="52" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A52" s="4"/>
-      <c r="BU52" s="6"/>
+    <row r="52" spans="1:73">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
     </row>
     <row r="53" spans="1:73">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-      <c r="BK53" s="5"/>
-      <c r="BL53" s="5"/>
-      <c r="BM53" s="5"/>
-      <c r="BN53" s="5"/>
-      <c r="BO53" s="5"/>
-      <c r="BP53" s="5"/>
-      <c r="BQ53" s="5"/>
-      <c r="BR53" s="5"/>
-      <c r="BS53" s="5"/>
-      <c r="BT53" s="5"/>
-    </row>
-    <row r="54" spans="1:73" ht="7" customHeight="1" thickBot="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54" s="2"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54" s="2"/>
-      <c r="BO54" s="2"/>
-      <c r="BP54" s="2"/>
-      <c r="BQ54" s="2"/>
-      <c r="BR54" s="2"/>
-      <c r="BS54" s="2"/>
-      <c r="BT54" s="2"/>
-      <c r="BU54" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="BU53" s="6"/>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" s="4"/>
+      <c r="BU54" s="6"/>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" s="4"/>
@@ -4075,6 +3967,7 @@
     </row>
     <row r="57" spans="1:73">
       <c r="A57" s="4"/>
+      <c r="M57" s="65"/>
       <c r="BU57" s="6"/>
     </row>
     <row r="58" spans="1:73">
@@ -4237,107 +4130,98 @@
       <c r="A97" s="4"/>
       <c r="BU97" s="6"/>
     </row>
-    <row r="98" spans="1:73">
+    <row r="98" spans="1:73" ht="15.5" thickBot="1">
       <c r="A98" s="4"/>
       <c r="BU98" s="6"/>
     </row>
     <row r="99" spans="1:73">
-      <c r="A99" s="4"/>
-      <c r="BU99" s="6"/>
-    </row>
-    <row r="100" spans="1:73" ht="15.5" thickBot="1">
-      <c r="A100" s="4"/>
-      <c r="BU100" s="6"/>
-    </row>
-    <row r="101" spans="1:73">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="5"/>
-      <c r="AF101" s="5"/>
-      <c r="AG101" s="5"/>
-      <c r="AH101" s="5"/>
-      <c r="AI101" s="5"/>
-      <c r="AJ101" s="5"/>
-      <c r="AK101" s="5"/>
-      <c r="AL101" s="5"/>
-      <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
-      <c r="AO101" s="5"/>
-      <c r="AP101" s="5"/>
-      <c r="AQ101" s="5"/>
-      <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
-      <c r="AT101" s="5"/>
-      <c r="AU101" s="5"/>
-      <c r="AV101" s="5"/>
-      <c r="AW101" s="5"/>
-      <c r="AX101" s="5"/>
-      <c r="AY101" s="5"/>
-      <c r="AZ101" s="5"/>
-      <c r="BA101" s="5"/>
-      <c r="BB101" s="5"/>
-      <c r="BC101" s="5"/>
-      <c r="BD101" s="5"/>
-      <c r="BE101" s="5"/>
-      <c r="BF101" s="5"/>
-      <c r="BG101" s="5"/>
-      <c r="BH101" s="5"/>
-      <c r="BI101" s="5"/>
-      <c r="BJ101" s="5"/>
-      <c r="BK101" s="5"/>
-      <c r="BL101" s="5"/>
-      <c r="BM101" s="5"/>
-      <c r="BN101" s="5"/>
-      <c r="BO101" s="5"/>
-      <c r="BP101" s="5"/>
-      <c r="BQ101" s="5"/>
-      <c r="BR101" s="5"/>
-      <c r="BS101" s="5"/>
-      <c r="BT101" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="5"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="5"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="5"/>
+      <c r="BA99" s="5"/>
+      <c r="BB99" s="5"/>
+      <c r="BC99" s="5"/>
+      <c r="BD99" s="5"/>
+      <c r="BE99" s="5"/>
+      <c r="BF99" s="5"/>
+      <c r="BG99" s="5"/>
+      <c r="BH99" s="5"/>
+      <c r="BI99" s="5"/>
+      <c r="BJ99" s="5"/>
+      <c r="BK99" s="5"/>
+      <c r="BL99" s="5"/>
+      <c r="BM99" s="5"/>
+      <c r="BN99" s="5"/>
+      <c r="BO99" s="5"/>
+      <c r="BP99" s="5"/>
+      <c r="BQ99" s="5"/>
+      <c r="BR99" s="5"/>
+      <c r="BS99" s="5"/>
+      <c r="BT99" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="BJ4:BP4"/>
+  <mergeCells count="19">
+    <mergeCell ref="BJ4:BQ4"/>
     <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BJ5:BQ5"/>
     <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BP2"/>
+    <mergeCell ref="BJ2:BQ2"/>
     <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="BQ3:BT5"/>
+    <mergeCell ref="BJ3:BQ3"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
     <mergeCell ref="W4:AN5"/>
     <mergeCell ref="AO4:AS5"/>
     <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
     <mergeCell ref="W2:AA3"/>
@@ -4346,10 +4230,10 @@
     <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
+    <oddHeader>&amp;R&amp;12P.&amp;P/&amp;N　　　</oddHeader>
   </headerFooter>
 </worksheet>
 </file>